--- a/prepped anova.xlsx
+++ b/prepped anova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF526B86-67B4-4182-819F-90BF79A3D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BDD38-42B6-43B0-9A4C-62B76E2AD488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34425" yWindow="3585" windowWidth="13635" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class Scores" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -413,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,16 +444,79 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,139 +546,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1152,30 +1089,30 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9"/>
     </row>
     <row r="8" spans="1:13">
@@ -1219,54 +1156,126 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="14" t="e">
+        <f>AVERAGE(B4:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="15" t="e">
+        <f>AVERAGE(B4:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="15" t="e">
+        <f>AVERAGE(B4:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="16" t="e">
+        <f>AVERAGE(B4:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="I10" s="45" t="e">
+        <f>(B4-B10)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="45" t="e">
+        <f t="shared" ref="I10:L12" si="0">(C4-C10)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="44" t="e">
+        <f>AVERAGE(B5:E5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="44" t="e">
+        <f>AVERAGE(C5:F5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="44" t="e">
+        <f>AVERAGE(D5:G5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="44" t="e">
+        <f>AVERAGE(E5:H5)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
+      <c r="I11" s="45" t="e">
+        <f>(B5-B11)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="44" t="e">
+        <f>AVERAGE(B6:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="44" t="e">
+        <f>AVERAGE(C6:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="44" t="e">
+        <f>AVERAGE(D6:G6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="44" t="e">
+        <f>AVERAGE(E6:H6)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
+      <c r="I12" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M12" s="9"/>
     </row>
     <row r="14" spans="1:13">
@@ -1307,76 +1316,148 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="17" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="18" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="18" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="19" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
+      <c r="I16" s="46" t="e">
+        <f t="shared" ref="I16:L18" si="1">(B10-B16)^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="20" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="21" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="21" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="22" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="23" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="24" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="24" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="25" t="e">
+        <f>AVERAGE(B4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
+      <c r="I18" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M18" s="9"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="H21" t="s">
         <v>14</v>
       </c>
@@ -1394,55 +1475,73 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="10" t="e">
+        <f>SUM(I16:L18)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="11"/>
+      <c r="K22" s="8" t="e">
+        <f>I22/J22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="11" t="e">
+        <f>K22/K23</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="12" t="e">
+        <f>SUM(I10:L12)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="13" t="e">
+        <f>I23/J23</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7" t="e">
+        <f>I22+I23</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
